--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">database</t>
   </si>
   <si>
-    <t xml:space="preserve">database.html</t>
+    <t xml:space="preserve">list_db.html</t>
   </si>
   <si>
     <t xml:space="preserve">各データベース編集画面へのリンクページ</t>
@@ -1473,15 +1473,15 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.42"/>
@@ -1556,7 +1556,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5" t="s">

--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -193,7 +193,10 @@
     <t xml:space="preserve">database</t>
   </si>
   <si>
-    <t xml:space="preserve">list_db.html</t>
+    <t xml:space="preserve">ListDbServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listDb.jsp</t>
   </si>
   <si>
     <t xml:space="preserve">各データベース編集画面へのリンクページ</t>
@@ -1352,7 +1355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1381,8 +1384,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1466,21 +1477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.24"/>
@@ -1521,13 +1532,13 @@
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1550,7 +1561,7 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="5"/>
@@ -1565,436 +1576,438 @@
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>44</v>
+      <c r="A9" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="F11" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>63</v>
+      <c r="A12" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>69</v>
+      <c r="A13" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>75</v>
+      <c r="A14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="F14" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="G14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>81</v>
+      <c r="A15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>87</v>
+      <c r="A16" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="F16" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>93</v>
+      <c r="A17" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
+      <c r="F17" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>99</v>
+      <c r="A18" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="F18" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="G18" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>105</v>
+      <c r="A19" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>111</v>
+      <c r="A20" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
+      <c r="F20" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>117</v>
+      <c r="A21" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="F21" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>123</v>
+      <c r="A22" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="F22" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -1355,7 +1355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,6 +1393,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,17 +1481,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
@@ -1555,10 +1559,10 @@
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1597,10 +1601,10 @@
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1618,10 +1622,10 @@
       <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1632,7 +1636,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1653,7 +1657,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1676,7 +1680,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1699,7 +1703,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1720,7 +1724,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1741,7 +1745,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1764,7 +1768,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1787,7 +1791,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1808,7 +1812,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1829,7 +1833,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1852,7 +1856,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1875,7 +1879,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1896,7 +1900,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1917,7 +1921,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1940,7 +1944,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1963,51 +1967,51 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -1302,8 +1302,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1355,7 +1355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1372,7 +1372,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1393,10 +1393,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1435,7 +1431,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1458,7 +1454,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1488,10 +1484,10 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
@@ -1657,7 +1653,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1680,7 +1676,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1712,10 +1708,10 @@
       <c r="C11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1724,7 +1720,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1733,10 +1729,10 @@
       <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -1745,7 +1741,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1754,10 +1750,10 @@
       <c r="C13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1768,7 +1764,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1777,10 +1773,10 @@
       <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1791,7 +1787,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1812,7 +1808,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1833,7 +1829,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1856,7 +1852,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1879,7 +1875,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1900,7 +1896,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1921,7 +1917,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1944,7 +1940,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1967,46 +1963,46 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -324,7 +324,7 @@
     <t xml:space="preserve">UpdateProductServlet</t>
   </si>
   <si>
-    <t xml:space="preserve">editProduct.jsp</t>
+    <t xml:space="preserve">updateProduct.jsp</t>
   </si>
   <si>
     <r>
@@ -1355,7 +1355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,10 +1393,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1484,10 +1480,10 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
@@ -1632,7 +1628,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1641,10 +1637,10 @@
       <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1653,7 +1649,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1662,10 +1658,10 @@
       <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1676,7 +1672,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1685,10 +1681,10 @@
       <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1699,7 +1695,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1720,7 +1716,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1741,7 +1737,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1764,7 +1760,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1787,7 +1783,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1808,7 +1804,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1829,7 +1825,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1852,7 +1848,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1875,7 +1871,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1896,7 +1892,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1917,7 +1913,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1940,7 +1936,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1963,46 +1959,46 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -636,13 +636,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">listCatA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listCatAServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listCatA.jsp</t>
+    <t xml:space="preserve">listCategoryA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listCategoryAServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listCategoryA.jsp</t>
   </si>
   <si>
     <r>
@@ -706,13 +706,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">addCatA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addCatAServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addCatA.jsp</t>
+    <t xml:space="preserve">addCategoryA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addCategoryAServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addCategoryA.jsp</t>
   </si>
   <si>
     <r>
@@ -786,13 +786,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">updateCatA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateCatAServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateCatA.jsp</t>
+    <t xml:space="preserve">updateCategoryA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updateCategoryAServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updateCategoryA.jsp</t>
   </si>
   <si>
     <r>
@@ -866,13 +866,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">deleteCatA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleteCatAServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleteCatA.jsp</t>
+    <t xml:space="preserve">deleteCategoryA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteCategoryAServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteCategoryA.jsp</t>
   </si>
   <si>
     <r>
@@ -946,13 +946,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">listCatB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listCatBServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listCatB.jsp</t>
+    <t xml:space="preserve">listCategoryB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listCategoryBServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listCategoryB.jsp</t>
   </si>
   <si>
     <r>
@@ -1016,13 +1016,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">addCatB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addCatBServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addCatB.jsp</t>
+    <t xml:space="preserve">addCategoryB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addCategoryBServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addCategoryB.jsp</t>
   </si>
   <si>
     <r>
@@ -1096,13 +1096,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">updateCatB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateCatBServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateCatB.jsp</t>
+    <t xml:space="preserve">updateCategoryB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updateCategoryBServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updateCategoryB.jsp</t>
   </si>
   <si>
     <r>
@@ -1176,13 +1176,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">deleteCatB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleteCatBServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleteCatB.jsp</t>
+    <t xml:space="preserve">deleteCategoryB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteCategoryBServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteCategoryB.jsp</t>
   </si>
   <si>
     <r>
@@ -1473,23 +1473,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.42"/>
   </cols>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>100</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>112</v>
       </c>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>118</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>124</v>
       </c>
@@ -2003,7 +2003,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
